--- a/Variable List.xlsx
+++ b/Variable List.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carleegriffeth/Documents/GSD/Thesis/R/ev-charging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1EE48CB-3D7B-AA4C-854D-8E44CFEFCD88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33372038-D33E-8243-9B3D-204D1A657D7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{FD1BAC5D-5456-194E-98B2-FF58C9FEDD2B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="21000" xr2:uid="{FD1BAC5D-5456-194E-98B2-FF58C9FEDD2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression 1 | Household" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression 2A | Tract (EVs)" sheetId="4" r:id="rId2"/>
+    <sheet name="Regression 2B | Tract (Station)" sheetId="2" r:id="rId3"/>
+    <sheet name="Regression 3 | Charging Station" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,70 +37,278 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>presence of black person</t>
-  </si>
-  <si>
-    <t>presence of asian person</t>
-  </si>
-  <si>
-    <t>presence of hispanic person</t>
-  </si>
-  <si>
-    <t>presence of other BIPOC</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>presence of disabled person</t>
-  </si>
-  <si>
-    <t>number of children (12 and under or under 18)</t>
-  </si>
-  <si>
-    <t># of workers in household</t>
-  </si>
-  <si>
-    <t># of liscenced drivers (18+)</t>
-  </si>
-  <si>
-    <t># of adults</t>
-  </si>
-  <si>
-    <t># of people</t>
-  </si>
-  <si>
-    <t>average travel time to work</t>
-  </si>
-  <si>
-    <t>average distance to work</t>
-  </si>
-  <si>
-    <t>presence of workers who commute to work by driving alone</t>
-  </si>
-  <si>
-    <t>presence of workers who commute to work by transit</t>
-  </si>
-  <si>
-    <t>presence of workers who work from home</t>
-  </si>
-  <si>
-    <t>density of home neighborhood</t>
-  </si>
-  <si>
-    <t>single family home</t>
-  </si>
-  <si>
-    <t>renter vs. homeowners</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="81">
+  <si>
+    <t>electric vehicle owning households</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Categorical vs. Continuous</t>
+  </si>
+  <si>
+    <t>Categorical: Binary</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Predictor Variable</t>
+  </si>
+  <si>
+    <t>NHTS (2017)</t>
+  </si>
+  <si>
+    <t>Measure of…</t>
+  </si>
+  <si>
+    <t>Outcome (dep) vs. Predictor (ind)</t>
+  </si>
+  <si>
+    <t>Outcome Variable</t>
+  </si>
+  <si>
+    <t>marginalization (race)</t>
+  </si>
+  <si>
+    <t>marginalization (affluence)</t>
+  </si>
+  <si>
+    <t>marginalization (ability)</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>built environment</t>
+  </si>
+  <si>
+    <t>behavior, built environment</t>
+  </si>
+  <si>
+    <t>socio-economic characteristic</t>
+  </si>
+  <si>
+    <t>built environment, socio-economic characteristic</t>
+  </si>
+  <si>
+    <t>socio-demographic characteristic</t>
+  </si>
+  <si>
+    <t>presence of black person in hh</t>
+  </si>
+  <si>
+    <t>presence of asian person in hh</t>
+  </si>
+  <si>
+    <t>presence of hispanic person in hh</t>
+  </si>
+  <si>
+    <t>presence of other BIPOC in hh</t>
+  </si>
+  <si>
+    <t>income of hh</t>
+  </si>
+  <si>
+    <t>presence of disabled person in hh</t>
+  </si>
+  <si>
+    <t>number of children (12 and under or under 18) in hh</t>
+  </si>
+  <si>
+    <t># of workers in hh</t>
+  </si>
+  <si>
+    <t># of adults in hh</t>
+  </si>
+  <si>
+    <t># of people in hh</t>
+  </si>
+  <si>
+    <t>average travel time to work among all workers in hh</t>
+  </si>
+  <si>
+    <t>average distance to work among all workers in hh</t>
+  </si>
+  <si>
+    <t>presence of workers who commute to work by driving alone in hh</t>
+  </si>
+  <si>
+    <t>presence of workers who commute to work by transit in hh</t>
+  </si>
+  <si>
+    <t>presence of workers who work from home in hh</t>
+  </si>
+  <si>
+    <t>density neighborhood hh sits in</t>
+  </si>
+  <si>
+    <t>y/n hh is single family home</t>
+  </si>
+  <si>
+    <t>y/n owner occupied hh</t>
+  </si>
+  <si>
+    <t>percent of census tract population: black</t>
+  </si>
+  <si>
+    <t>percent of census tract population: asian</t>
+  </si>
+  <si>
+    <t>percent of census tract population: hispanic</t>
+  </si>
+  <si>
+    <t>percent of census tract population: other BIPOC</t>
+  </si>
+  <si>
+    <t>median hh income of census tract</t>
+  </si>
+  <si>
+    <t>percent of census tract population: disabled</t>
+  </si>
+  <si>
+    <t>percent of census tract population: children aged 12 and under</t>
+  </si>
+  <si>
+    <t># of licensed drivers (18+) in hh</t>
+  </si>
+  <si>
+    <t>percent of census tract adult population (18+) with drivers license</t>
+  </si>
+  <si>
+    <t>percent of census tract adult population (18+): worker</t>
+  </si>
+  <si>
+    <t>total population of census tract</t>
+  </si>
+  <si>
+    <t>total adult population (18+) of census tract</t>
+  </si>
+  <si>
+    <t>census tracts with an electric vehicle charging station</t>
+  </si>
+  <si>
+    <t>average travel time to work among workers in census tract</t>
+  </si>
+  <si>
+    <t>average distance traveled to work among workers in census tract</t>
+  </si>
+  <si>
+    <t>percent of workers in census tract who commute to work by driving alone</t>
+  </si>
+  <si>
+    <t>percent of workers in census tract who commute to work by transit</t>
+  </si>
+  <si>
+    <t>percent of workers in census tract who work from home</t>
+  </si>
+  <si>
+    <t>density of census tract (people / square mile)</t>
+  </si>
+  <si>
+    <t>Census Bureau | ACS 2017 1-Year or 3-Year estimate</t>
+  </si>
+  <si>
+    <t>percent of homes in census tract that are single-family</t>
+  </si>
+  <si>
+    <t>percent of owner occupied units in census tract</t>
+  </si>
+  <si>
+    <t>charging stations that are free, publicly accessible</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>ownership of charging station: private or publicly owned</t>
+  </si>
+  <si>
+    <t>Categorical: Nominal</t>
+  </si>
+  <si>
+    <t>charging station network</t>
+  </si>
+  <si>
+    <t>charging station ownership</t>
+  </si>
+  <si>
+    <t>DOE Charging Station Locator Dataset</t>
+  </si>
+  <si>
+    <t>estimated number of electric vehicles in the census tract</t>
+  </si>
+  <si>
+    <t>Predicting the likelihood that a car owning household owns an electric vehicle</t>
+  </si>
+  <si>
+    <t>Predicting the number of electric vehicles in a census tract</t>
+  </si>
+  <si>
+    <t>Predicting the likelihood that a census tract has an electric vehicle charging station</t>
+  </si>
+  <si>
+    <t>Predicting the likelihood that an electric vehicle charging station is free and publicly accessible</t>
+  </si>
+  <si>
+    <t>total number of likely EV owning households (proxy variable from regression 1)</t>
+  </si>
+  <si>
+    <t>likelihood that a car owning hh with presence of black person owns an EV</t>
+  </si>
+  <si>
+    <t>likelihood that a car owning hh with presence of asian person owns an EV</t>
+  </si>
+  <si>
+    <t>likelihood that a car owning hh with presence of hispanic person owns an EV</t>
+  </si>
+  <si>
+    <t>likelihood that a car owning hh with presence of BIPOC other owns an EV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">income of hh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(likelihood that a car owning hh with greater than average hh income owns an EV)</t>
+    </r>
+  </si>
+  <si>
+    <t>likelihood that a car owning hh with presence of disabled person owns an EV</t>
+  </si>
+  <si>
+    <r>
+      <t>number of children (12 and under or under 18) in hh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (likelihood that a car owning hh with greater than average # of children owns an EV)</t>
+    </r>
+  </si>
+  <si>
+    <t>socio-demographic characteristic (family composition)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,8 +317,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -131,9 +389,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,107 +719,1571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C12A824-4F7B-C34A-B5B3-FC08DDD246C4}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1239CC-991B-D84A-938F-B4532F47586A}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="89.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D699C48-6063-C74F-B8B6-CA244675E118}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EFC973-6033-0644-84E1-F995826F8C81}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
